--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8AA136-4DE9-4258-B5D3-4EFEAACF9132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE7CA6D-5C92-441D-B56C-DC09962B5937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1790" yWindow="2760" windowWidth="21640" windowHeight="11200" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="28" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="169">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -633,6 +633,12 @@
   </si>
   <si>
     <t>*FLO_BND</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>Bakytzhan Suleimenov (UCC, bsuleimenov@ucc.ie)</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1556,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4000,25 +4006,25 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" style="42" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="42" customWidth="1"/>
-    <col min="8" max="10" width="8.1796875" style="42" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="42" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="42" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" style="42" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="42" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="42" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="42" customWidth="1"/>
     <col min="13" max="13" width="10" style="42" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="42" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="42"/>
+    <col min="14" max="14" width="11.42578125" style="42" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="42" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -4046,7 +4052,7 @@
       <c r="Y1" s="41"/>
       <c r="Z1" s="41"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -4074,7 +4080,7 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -4102,7 +4108,7 @@
       <c r="Y3" s="41"/>
       <c r="Z3" s="41"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -4130,7 +4136,7 @@
       <c r="Y4" s="41"/>
       <c r="Z4" s="41"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -4158,7 +4164,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -4186,7 +4192,7 @@
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -4214,7 +4220,7 @@
       <c r="Y7" s="41"/>
       <c r="Z7" s="41"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -4242,7 +4248,7 @@
       <c r="Y8" s="41"/>
       <c r="Z8" s="41"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -4270,7 +4276,7 @@
       <c r="Y9" s="41"/>
       <c r="Z9" s="41"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -4298,7 +4304,7 @@
       <c r="Y10" s="41"/>
       <c r="Z10" s="41"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -4326,7 +4332,7 @@
       <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -4354,7 +4360,7 @@
       <c r="Y12" s="41"/>
       <c r="Z12" s="41"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -4382,7 +4388,7 @@
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -4410,7 +4416,7 @@
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -4438,7 +4444,7 @@
       <c r="Y15" s="41"/>
       <c r="Z15" s="41"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>144</v>
       </c>
@@ -4468,7 +4474,7 @@
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -4496,7 +4502,7 @@
       <c r="Y17" s="41"/>
       <c r="Z17" s="41"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -4524,7 +4530,7 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>145</v>
       </c>
@@ -4556,7 +4562,7 @@
       <c r="Y19" s="41"/>
       <c r="Z19" s="41"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>146</v>
       </c>
@@ -4588,7 +4594,7 @@
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>147</v>
       </c>
@@ -4620,7 +4626,7 @@
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -4648,7 +4654,7 @@
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>148</v>
       </c>
@@ -4680,9 +4686,11 @@
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="51" t="s">
+        <v>159</v>
+      </c>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="41"/>
@@ -4708,7 +4716,7 @@
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -4736,12 +4744,12 @@
       <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>149</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -4768,7 +4776,7 @@
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -4796,7 +4804,7 @@
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -4824,7 +4832,7 @@
       <c r="Y28" s="41"/>
       <c r="Z28" s="41"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>150</v>
       </c>
@@ -4856,7 +4864,7 @@
       <c r="Y29" s="41"/>
       <c r="Z29" s="41"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>151</v>
       </c>
@@ -4888,7 +4896,7 @@
       <c r="Y30" s="41"/>
       <c r="Z30" s="41"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>153</v>
       </c>
@@ -4920,7 +4928,7 @@
       <c r="Y31" s="41"/>
       <c r="Z31" s="41"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="55" t="s">
         <v>155</v>
@@ -4950,7 +4958,7 @@
       <c r="Y32" s="41"/>
       <c r="Z32" s="41"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -4978,7 +4986,7 @@
       <c r="Y33" s="41"/>
       <c r="Z33" s="41"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -5006,7 +5014,7 @@
       <c r="Y34" s="41"/>
       <c r="Z34" s="41"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -5034,7 +5042,7 @@
       <c r="Y35" s="41"/>
       <c r="Z35" s="41"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -5062,7 +5070,7 @@
       <c r="Y36" s="41"/>
       <c r="Z36" s="41"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -5090,7 +5098,7 @@
       <c r="Y37" s="41"/>
       <c r="Z37" s="41"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -5118,7 +5126,7 @@
       <c r="Y38" s="41"/>
       <c r="Z38" s="41"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -5146,7 +5154,7 @@
       <c r="Y39" s="41"/>
       <c r="Z39" s="41"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -5174,7 +5182,7 @@
       <c r="Y40" s="41"/>
       <c r="Z40" s="41"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -5202,7 +5210,7 @@
       <c r="Y41" s="41"/>
       <c r="Z41" s="41"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -5230,7 +5238,7 @@
       <c r="Y42" s="41"/>
       <c r="Z42" s="41"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -5258,7 +5266,7 @@
       <c r="Y43" s="41"/>
       <c r="Z43" s="41"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -5286,7 +5294,7 @@
       <c r="Y44" s="41"/>
       <c r="Z44" s="41"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -5314,7 +5322,7 @@
       <c r="Y45" s="41"/>
       <c r="Z45" s="41"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -5342,7 +5350,7 @@
       <c r="Y46" s="41"/>
       <c r="Z46" s="41"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -5370,7 +5378,7 @@
       <c r="Y47" s="41"/>
       <c r="Z47" s="41"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -5398,7 +5406,7 @@
       <c r="Y48" s="41"/>
       <c r="Z48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -5426,7 +5434,7 @@
       <c r="Y49" s="41"/>
       <c r="Z49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -5454,7 +5462,7 @@
       <c r="Y50" s="41"/>
       <c r="Z50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -5482,7 +5490,7 @@
       <c r="Y51" s="41"/>
       <c r="Z51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -5510,7 +5518,7 @@
       <c r="Y52" s="41"/>
       <c r="Z52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41"/>
@@ -5538,7 +5546,7 @@
       <c r="Y53" s="41"/>
       <c r="Z53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -5566,7 +5574,7 @@
       <c r="Y54" s="41"/>
       <c r="Z54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -5594,7 +5602,7 @@
       <c r="Y55" s="41"/>
       <c r="Z55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -5622,7 +5630,7 @@
       <c r="Y56" s="41"/>
       <c r="Z56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -5650,7 +5658,7 @@
       <c r="Y57" s="41"/>
       <c r="Z57" s="41"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -5678,7 +5686,7 @@
       <c r="Y58" s="41"/>
       <c r="Z58" s="41"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -5706,7 +5714,7 @@
       <c r="Y59" s="41"/>
       <c r="Z59" s="41"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -5734,7 +5742,7 @@
       <c r="Y60" s="41"/>
       <c r="Z60" s="41"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -5762,7 +5770,7 @@
       <c r="Y61" s="41"/>
       <c r="Z61" s="41"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -5790,7 +5798,7 @@
       <c r="Y62" s="41"/>
       <c r="Z62" s="41"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -5818,7 +5826,7 @@
       <c r="Y63" s="41"/>
       <c r="Z63" s="41"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -5846,7 +5854,7 @@
       <c r="Y64" s="41"/>
       <c r="Z64" s="41"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -5874,7 +5882,7 @@
       <c r="Y65" s="41"/>
       <c r="Z65" s="41"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -5902,7 +5910,7 @@
       <c r="Y66" s="41"/>
       <c r="Z66" s="41"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -5930,7 +5938,7 @@
       <c r="Y67" s="41"/>
       <c r="Z67" s="41"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -5958,7 +5966,7 @@
       <c r="Y68" s="41"/>
       <c r="Z68" s="41"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -5986,7 +5994,7 @@
       <c r="Y69" s="41"/>
       <c r="Z69" s="41"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -6014,7 +6022,7 @@
       <c r="Y70" s="41"/>
       <c r="Z70" s="41"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -6042,7 +6050,7 @@
       <c r="Y71" s="41"/>
       <c r="Z71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -6070,7 +6078,7 @@
       <c r="Y72" s="41"/>
       <c r="Z72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -6098,7 +6106,7 @@
       <c r="Y73" s="41"/>
       <c r="Z73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -6126,7 +6134,7 @@
       <c r="Y74" s="41"/>
       <c r="Z74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -6154,7 +6162,7 @@
       <c r="Y75" s="41"/>
       <c r="Z75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -6182,7 +6190,7 @@
       <c r="Y76" s="41"/>
       <c r="Z76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -6210,7 +6218,7 @@
       <c r="Y77" s="41"/>
       <c r="Z77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -6238,7 +6246,7 @@
       <c r="Y78" s="41"/>
       <c r="Z78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -6266,7 +6274,7 @@
       <c r="Y79" s="41"/>
       <c r="Z79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -6294,7 +6302,7 @@
       <c r="Y80" s="41"/>
       <c r="Z80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -6322,7 +6330,7 @@
       <c r="Y81" s="41"/>
       <c r="Z81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -6350,7 +6358,7 @@
       <c r="Y82" s="41"/>
       <c r="Z82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -6378,7 +6386,7 @@
       <c r="Y83" s="41"/>
       <c r="Z83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -6406,7 +6414,7 @@
       <c r="Y84" s="41"/>
       <c r="Z84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -6434,7 +6442,7 @@
       <c r="Y85" s="41"/>
       <c r="Z85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -6462,7 +6470,7 @@
       <c r="Y86" s="41"/>
       <c r="Z86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -6490,7 +6498,7 @@
       <c r="Y87" s="41"/>
       <c r="Z87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -6518,7 +6526,7 @@
       <c r="Y88" s="41"/>
       <c r="Z88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -6546,7 +6554,7 @@
       <c r="Y89" s="41"/>
       <c r="Z89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -6574,7 +6582,7 @@
       <c r="Y90" s="41"/>
       <c r="Z90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -6602,7 +6610,7 @@
       <c r="Y91" s="41"/>
       <c r="Z91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -6630,7 +6638,7 @@
       <c r="Y92" s="41"/>
       <c r="Z92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -6658,7 +6666,7 @@
       <c r="Y93" s="41"/>
       <c r="Z93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -6686,7 +6694,7 @@
       <c r="Y94" s="41"/>
       <c r="Z94" s="41"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -6714,7 +6722,7 @@
       <c r="Y95" s="41"/>
       <c r="Z95" s="41"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -6742,7 +6750,7 @@
       <c r="Y96" s="41"/>
       <c r="Z96" s="41"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -6770,7 +6778,7 @@
       <c r="Y97" s="41"/>
       <c r="Z97" s="41"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
@@ -6798,7 +6806,7 @@
       <c r="Y98" s="41"/>
       <c r="Z98" s="41"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
@@ -6855,38 +6863,38 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" customWidth="1"/>
-    <col min="10" max="11" width="5.7265625" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" customWidth="1"/>
-    <col min="16" max="16" width="7.1796875" customWidth="1"/>
-    <col min="17" max="17" width="5.7265625" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
     <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="5.81640625" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" customWidth="1"/>
-    <col min="22" max="22" width="6.7265625" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" customWidth="1"/>
     <col min="23" max="23" width="5" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" customWidth="1"/>
-    <col min="25" max="25" width="6.7265625" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
     <col min="26" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="5.7265625" customWidth="1"/>
-    <col min="30" max="30" width="6.7265625" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="str">
         <f t="array" ref="C3">IF(INDEX(C5:C7,$A$4)&lt;&gt;0,INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -7000,13 +7008,13 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -7121,7 +7129,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -7157,7 +7165,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -7271,7 +7279,7 @@
       </c>
       <c r="AD7" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -7279,7 +7287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
@@ -7287,7 +7295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -7295,7 +7303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
@@ -7303,7 +7311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -7311,7 +7319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -7319,7 +7327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -7327,7 +7335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -7335,7 +7343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -7343,7 +7351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -7351,7 +7359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
@@ -7359,7 +7367,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -7367,7 +7375,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>88</v>
       </c>
@@ -7375,7 +7383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -7383,7 +7391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -7391,7 +7399,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
@@ -7399,7 +7407,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>96</v>
       </c>
@@ -7407,7 +7415,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>98</v>
       </c>
@@ -7415,7 +7423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>100</v>
       </c>
@@ -7423,7 +7431,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>102</v>
       </c>
@@ -7431,7 +7439,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>104</v>
       </c>
@@ -7439,7 +7447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
@@ -7447,7 +7455,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>108</v>
       </c>
@@ -7455,7 +7463,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>110</v>
       </c>
@@ -7463,7 +7471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>112</v>
       </c>
@@ -7471,7 +7479,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>114</v>
       </c>
@@ -7479,7 +7487,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>116</v>
       </c>
@@ -7487,7 +7495,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>118</v>
       </c>
@@ -7513,7 +7521,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7537,20 +7545,20 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="9" t="s">
         <v>8</v>
@@ -7559,7 +7567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>33</v>
@@ -7569,7 +7577,7 @@
         <v>IE</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="str">
@@ -7577,7 +7585,7 @@
         <v>National</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="str">
@@ -7585,7 +7593,7 @@
         <v>IE-CW</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="str">
@@ -7593,7 +7601,7 @@
         <v>IE-D</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="str">
@@ -7601,7 +7609,7 @@
         <v>IE-KE</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="str">
@@ -7609,7 +7617,7 @@
         <v>IE-KK</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="str">
@@ -7617,7 +7625,7 @@
         <v>IE-LS</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="str">
@@ -7625,7 +7633,7 @@
         <v>IE-LD</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="str">
@@ -7633,7 +7641,7 @@
         <v>IE-LH</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="str">
@@ -7641,7 +7649,7 @@
         <v>IE-MH</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="str">
@@ -7649,7 +7657,7 @@
         <v>IE-OY</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="str">
@@ -7657,7 +7665,7 @@
         <v>IE-WH</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="str">
@@ -7665,7 +7673,7 @@
         <v>IE-WX</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="str">
@@ -7673,7 +7681,7 @@
         <v>IE-WW</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="str">
@@ -7681,116 +7689,116 @@
         <v>IE-CE</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="C20" s="8" t="str">
         <f>Regions!R3</f>
         <v>IE-CO</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="C21" s="8" t="str">
         <f>Regions!S3</f>
         <v>IE-KY</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="C22" s="8" t="str">
         <f>Regions!T3</f>
         <v>IE-LK</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="C23" s="8" t="str">
         <f>Regions!U3</f>
         <v>IE-TA</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="C24" s="8" t="str">
         <f>Regions!V3</f>
         <v>IE-WD</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="C25" s="8" t="str">
         <f>Regions!W3</f>
         <v>IE-G</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="C26" s="8" t="str">
         <f>Regions!X3</f>
         <v>IE-LM</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="C27" s="8" t="str">
         <f>Regions!Y3</f>
         <v>IE-MO</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="C28" s="8" t="str">
         <f>Regions!Z3</f>
         <v>IE-RN</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="C29" s="8" t="str">
         <f>Regions!AA3</f>
         <v>IE-SO</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="C30" s="8" t="str">
         <f>Regions!AB3</f>
         <v>IE-CN</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="C31" s="8" t="str">
         <f>Regions!AC3</f>
         <v>IE-DL</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="C32" s="8" t="str">
         <f>Regions!AD3</f>
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
     </row>
   </sheetData>
@@ -7803,46 +7811,46 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B3:I51"/>
+  <dimension ref="B3:U51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="13.7265625" customWidth="1"/>
+    <col min="2" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>137</v>
       </c>
@@ -7867,8 +7875,38 @@
       <c r="I12" s="39" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <v>1</v>
       </c>
@@ -7893,8 +7931,47 @@
       <c r="I13" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12">
+        <f>+B4</f>
+        <v>2018</v>
+      </c>
+      <c r="N13" s="12">
+        <f>+M13</f>
+        <v>2018</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" ref="O13:T13" si="0">+N13</f>
+        <v>2018</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="U13" s="17">
+        <f t="shared" ref="U13" si="1">+T13</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -7919,8 +7996,47 @@
       <c r="I14" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
+        <f>+M13+B14</f>
+        <v>2019</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" ref="N14:U29" si="2">+N13+C14</f>
+        <v>2019</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <v>1</v>
       </c>
@@ -7945,8 +8061,47 @@
       <c r="I15" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" ref="M15:M17" si="3">+M14+B15</f>
+        <v>2020</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="O15" s="12">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="R15" s="12">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="U15" s="17">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <v>20</v>
       </c>
@@ -7971,8 +8126,47 @@
       <c r="I16" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="U16" s="17">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <v>20</v>
       </c>
@@ -7997,8 +8191,47 @@
       <c r="I17" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="3"/>
+        <v>2060</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="O17" s="12">
+        <f t="shared" si="2"/>
+        <v>2037</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="Q17" s="12">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="R17" s="12">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="U17" s="17">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C18" s="12">
         <v>5</v>
       </c>
@@ -8020,8 +8253,43 @@
       <c r="I18" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="2"/>
+        <v>2042</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" si="2"/>
+        <v>2037</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="R18" s="12">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="U18" s="17">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C19" s="12">
         <v>45</v>
       </c>
@@ -8043,8 +8311,43 @@
       <c r="I19" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="2"/>
+        <v>2072</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="2"/>
+        <v>2047</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="2"/>
+        <v>2042</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="R19" s="12">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="U19" s="17">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C20" s="12">
         <v>25</v>
       </c>
@@ -8066,8 +8369,43 @@
       <c r="I20" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" si="2"/>
+        <v>2097</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" si="2"/>
+        <v>2052</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" si="2"/>
+        <v>2047</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="2"/>
+        <v>2037</v>
+      </c>
+      <c r="R20" s="12">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="U20" s="17">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>5</v>
       </c>
@@ -8089,8 +8427,43 @@
       <c r="I21" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="12">
+        <v>10</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="2"/>
+        <v>2102</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" si="2"/>
+        <v>2057</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" si="2"/>
+        <v>2052</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="2"/>
+        <v>2042</v>
+      </c>
+      <c r="R21" s="12">
+        <f t="shared" si="2"/>
+        <v>2026</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" si="2"/>
+        <v>2026</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="2"/>
+        <v>2026</v>
+      </c>
+      <c r="U21" s="17">
+        <f>+U20+J21-5</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D22" s="12">
         <v>5</v>
       </c>
@@ -8109,8 +8482,39 @@
       <c r="I22" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="12">
+        <v>10</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="2"/>
+        <v>2062</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="2"/>
+        <v>2057</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="2"/>
+        <v>2047</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="U22" s="17">
+        <f t="shared" si="2"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D23" s="12">
         <v>5</v>
       </c>
@@ -8129,8 +8533,39 @@
       <c r="I23" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="12">
+        <v>10</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="2"/>
+        <v>2067</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" si="2"/>
+        <v>2062</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="2"/>
+        <v>2052</v>
+      </c>
+      <c r="R23" s="12">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
+      <c r="S23" s="17">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
+      <c r="T23" s="17">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
+      <c r="U23" s="17">
+        <f t="shared" si="2"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D24" s="12">
         <v>5</v>
       </c>
@@ -8149,8 +8584,39 @@
       <c r="I24" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="12">
+        <v>10</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="2"/>
+        <v>2072</v>
+      </c>
+      <c r="P24" s="12">
+        <f t="shared" si="2"/>
+        <v>2067</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="2"/>
+        <v>2057</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="2"/>
+        <v>2029</v>
+      </c>
+      <c r="S24" s="17">
+        <f t="shared" si="2"/>
+        <v>2029</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" si="2"/>
+        <v>2029</v>
+      </c>
+      <c r="U24" s="17">
+        <f t="shared" si="2"/>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E25" s="12">
         <v>5</v>
       </c>
@@ -8166,8 +8632,35 @@
       <c r="I25" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="12">
+        <v>10</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="2"/>
+        <v>2072</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="2"/>
+        <v>2062</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" si="2"/>
+        <v>2030</v>
+      </c>
+      <c r="S25" s="17">
+        <f t="shared" si="2"/>
+        <v>2030</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="2"/>
+        <v>2030</v>
+      </c>
+      <c r="U25" s="17">
+        <f t="shared" si="2"/>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="F26" s="12">
         <v>5</v>
       </c>
@@ -8180,8 +8673,31 @@
       <c r="I26" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" si="2"/>
+        <v>2067</v>
+      </c>
+      <c r="R26" s="12">
+        <f t="shared" si="2"/>
+        <v>2031</v>
+      </c>
+      <c r="S26" s="17">
+        <f t="shared" si="2"/>
+        <v>2031</v>
+      </c>
+      <c r="T26" s="17">
+        <f t="shared" si="2"/>
+        <v>2031</v>
+      </c>
+      <c r="U26" s="17">
+        <f t="shared" si="2"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="F27" s="12">
         <v>5</v>
       </c>
@@ -8194,8 +8710,31 @@
       <c r="I27" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="2"/>
+        <v>2072</v>
+      </c>
+      <c r="R27" s="12">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="S27" s="17">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="T27" s="17">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="U27" s="17">
+        <f t="shared" si="2"/>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="G28" s="12">
         <v>5</v>
       </c>
@@ -8205,8 +8744,27 @@
       <c r="I28" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="12">
+        <v>10</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="2"/>
+        <v>2037</v>
+      </c>
+      <c r="S28" s="17">
+        <f t="shared" si="2"/>
+        <v>2033</v>
+      </c>
+      <c r="T28" s="17">
+        <f t="shared" si="2"/>
+        <v>2033</v>
+      </c>
+      <c r="U28" s="17">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="G29" s="12">
         <v>5</v>
       </c>
@@ -8216,8 +8774,20 @@
       <c r="I29" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="R29" s="12">
+        <f t="shared" si="2"/>
+        <v>2042</v>
+      </c>
+      <c r="S29" s="17">
+        <f t="shared" si="2"/>
+        <v>2034</v>
+      </c>
+      <c r="T29" s="17">
+        <f t="shared" si="2"/>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="G30" s="12">
         <v>5</v>
       </c>
@@ -8227,8 +8797,20 @@
       <c r="I30" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="R30" s="12">
+        <f t="shared" ref="R30:T45" si="4">+R29+G30</f>
+        <v>2047</v>
+      </c>
+      <c r="S30" s="17">
+        <f t="shared" si="4"/>
+        <v>2035</v>
+      </c>
+      <c r="T30" s="17">
+        <f t="shared" si="4"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="G31" s="12">
         <v>5</v>
       </c>
@@ -8238,8 +8820,20 @@
       <c r="I31" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="R31" s="12">
+        <f t="shared" si="4"/>
+        <v>2052</v>
+      </c>
+      <c r="S31" s="17">
+        <f t="shared" si="4"/>
+        <v>2036</v>
+      </c>
+      <c r="T31" s="17">
+        <f t="shared" si="4"/>
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="G32" s="12">
         <v>5</v>
       </c>
@@ -8249,8 +8843,20 @@
       <c r="I32" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="R32" s="12">
+        <f t="shared" si="4"/>
+        <v>2057</v>
+      </c>
+      <c r="S32" s="17">
+        <f t="shared" si="4"/>
+        <v>2037</v>
+      </c>
+      <c r="T32" s="17">
+        <f t="shared" si="4"/>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="33" spans="7:20" x14ac:dyDescent="0.2">
       <c r="G33" s="12">
         <v>5</v>
       </c>
@@ -8260,8 +8866,20 @@
       <c r="I33" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="R33" s="12">
+        <f t="shared" si="4"/>
+        <v>2062</v>
+      </c>
+      <c r="S33" s="17">
+        <f t="shared" si="4"/>
+        <v>2038</v>
+      </c>
+      <c r="T33" s="17">
+        <f t="shared" si="4"/>
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="34" spans="7:20" x14ac:dyDescent="0.2">
       <c r="G34" s="12">
         <v>5</v>
       </c>
@@ -8271,8 +8889,20 @@
       <c r="I34" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="R34" s="12">
+        <f t="shared" si="4"/>
+        <v>2067</v>
+      </c>
+      <c r="S34" s="17">
+        <f t="shared" si="4"/>
+        <v>2039</v>
+      </c>
+      <c r="T34" s="17">
+        <f t="shared" si="4"/>
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.2">
       <c r="G35" s="12">
         <v>5</v>
       </c>
@@ -8282,115 +8912,231 @@
       <c r="I35" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="R35" s="12">
+        <f t="shared" si="4"/>
+        <v>2072</v>
+      </c>
+      <c r="S35" s="17">
+        <f t="shared" si="4"/>
+        <v>2040</v>
+      </c>
+      <c r="T35" s="17">
+        <f t="shared" si="4"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="36" spans="7:20" x14ac:dyDescent="0.2">
       <c r="H36" s="17">
         <v>1</v>
       </c>
       <c r="I36" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="S36" s="17">
+        <f t="shared" si="4"/>
+        <v>2041</v>
+      </c>
+      <c r="T36" s="17">
+        <f t="shared" si="4"/>
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="37" spans="7:20" x14ac:dyDescent="0.2">
       <c r="H37" s="17">
         <v>1</v>
       </c>
       <c r="I37" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="S37" s="17">
+        <f t="shared" si="4"/>
+        <v>2042</v>
+      </c>
+      <c r="T37" s="17">
+        <f t="shared" si="4"/>
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.2">
       <c r="H38" s="17">
         <v>1</v>
       </c>
       <c r="I38" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="S38" s="17">
+        <f t="shared" si="4"/>
+        <v>2043</v>
+      </c>
+      <c r="T38" s="17">
+        <f t="shared" si="4"/>
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="39" spans="7:20" x14ac:dyDescent="0.2">
       <c r="H39" s="17">
         <v>1</v>
       </c>
       <c r="I39" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="S39" s="17">
+        <f t="shared" si="4"/>
+        <v>2044</v>
+      </c>
+      <c r="T39" s="17">
+        <f t="shared" si="4"/>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="40" spans="7:20" x14ac:dyDescent="0.2">
       <c r="H40" s="17">
         <v>1</v>
       </c>
       <c r="I40" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="S40" s="17">
+        <f t="shared" si="4"/>
+        <v>2045</v>
+      </c>
+      <c r="T40" s="17">
+        <f t="shared" si="4"/>
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.2">
       <c r="H41" s="17">
         <v>1</v>
       </c>
       <c r="I41" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="S41" s="17">
+        <f t="shared" si="4"/>
+        <v>2046</v>
+      </c>
+      <c r="T41" s="17">
+        <f t="shared" si="4"/>
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="42" spans="7:20" x14ac:dyDescent="0.2">
       <c r="H42" s="17">
         <v>1</v>
       </c>
       <c r="I42" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="S42" s="17">
+        <f t="shared" si="4"/>
+        <v>2047</v>
+      </c>
+      <c r="T42" s="17">
+        <f t="shared" si="4"/>
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="43" spans="7:20" x14ac:dyDescent="0.2">
       <c r="H43" s="17">
         <v>1</v>
       </c>
       <c r="I43" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="S43" s="17">
+        <f t="shared" si="4"/>
+        <v>2048</v>
+      </c>
+      <c r="T43" s="17">
+        <f t="shared" si="4"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="44" spans="7:20" x14ac:dyDescent="0.2">
       <c r="H44" s="17">
         <v>1</v>
       </c>
       <c r="I44" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="S44" s="17">
+        <f t="shared" si="4"/>
+        <v>2049</v>
+      </c>
+      <c r="T44" s="17">
+        <f t="shared" si="4"/>
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="45" spans="7:20" x14ac:dyDescent="0.2">
       <c r="H45" s="17">
         <v>1</v>
       </c>
       <c r="I45" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="S45" s="17">
+        <f t="shared" si="4"/>
+        <v>2050</v>
+      </c>
+      <c r="T45" s="17">
+        <f t="shared" si="4"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="46" spans="7:20" x14ac:dyDescent="0.2">
       <c r="I46" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="T46" s="17">
+        <f>+T45+I46</f>
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20" x14ac:dyDescent="0.2">
       <c r="I47" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="T47" s="17">
+        <f>+T46+I47</f>
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20" x14ac:dyDescent="0.2">
       <c r="I48" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="T48" s="17">
+        <f>+T47+I48-2</f>
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="49" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I49" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="T49" s="17">
+        <f t="shared" ref="T49:T51" si="5">+T48+I49</f>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="50" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I50" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="T50" s="17">
+        <f t="shared" si="5"/>
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="51" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I51" s="17">
         <v>5</v>
+      </c>
+      <c r="T51" s="17">
+        <f t="shared" si="5"/>
+        <v>2070</v>
       </c>
     </row>
   </sheetData>
@@ -8409,17 +9155,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.7265625" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
@@ -8427,7 +9173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>27</v>
       </c>
@@ -8435,7 +9181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
@@ -8443,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
@@ -8451,7 +9197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
@@ -8459,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>49</v>
       </c>
@@ -8479,46 +9225,46 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" customWidth="1"/>
-    <col min="8" max="8" width="6.26953125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
     </row>
-    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
     </row>
-    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -8536,7 +9282,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -8554,7 +9300,7 @@
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
     </row>
-    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -8572,7 +9318,7 @@
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
     </row>
-    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -8590,7 +9336,7 @@
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
     </row>
-    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -8608,7 +9354,7 @@
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>52</v>
       </c>
@@ -8627,7 +9373,7 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>0</v>
       </c>
@@ -8647,7 +9393,7 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
@@ -8697,7 +9443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
@@ -8723,7 +9469,7 @@
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24" t="s">
@@ -8749,7 +9495,7 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -8767,7 +9513,7 @@
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
@@ -8787,7 +9533,7 @@
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>12</v>
       </c>
@@ -8837,7 +9583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>165</v>
       </c>
@@ -8871,7 +9617,7 @@
       </c>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24" t="s">
@@ -8895,7 +9641,7 @@
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -8913,7 +9659,7 @@
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -8947,27 +9693,27 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -8987,7 +9733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
@@ -8995,7 +9741,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26" t="s">
@@ -9007,7 +9753,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B3,4))</f>
@@ -9025,7 +9771,7 @@
         <v>1.3926669328933141</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B4,4))</f>
@@ -9043,7 +9789,7 @@
         <v>1.3626878012654737</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B5,4))</f>
@@ -9061,7 +9807,7 @@
         <v>1.3346599424735295</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B6,4))</f>
@@ -9079,7 +9825,7 @@
         <v>1.3084901396799309</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B7,4))</f>
@@ -9097,7 +9843,7 @@
         <v>1.2828334702744419</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B8,4))</f>
@@ -9115,7 +9861,7 @@
         <v>1.2552186597597279</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B9,4))</f>
@@ -9133,7 +9879,7 @@
         <v>1.2281982972208687</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B10,4))</f>
@@ -9151,7 +9897,7 @@
         <v>1.2005848457682002</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B11,4))</f>
@@ -9169,7 +9915,7 @@
         <v>1.1577481637108971</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B12,4))</f>
@@ -9187,7 +9933,7 @@
         <v>1.1462853106048485</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B13,4))</f>
@@ -9205,7 +9951,7 @@
         <v>1.1227084335013209</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B14,4))</f>
@@ -9223,7 +9969,7 @@
         <v>1.0889509539295061</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B15,4))</f>
@@ -9241,7 +9987,7 @@
         <v>1.0613557055843141</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B16,4))</f>
@@ -9259,7 +10005,7 @@
         <v>1.045670645895876</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B17,4))</f>
@@ -9277,7 +10023,7 @@
         <v>1.0394340416460002</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B18,4))</f>
@@ -9295,7 +10041,7 @@
         <v>1.0383956459999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B19,4))</f>
@@ -9313,7 +10059,7 @@
         <v>1.0363230000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B20,4))</f>
@@ -9331,7 +10077,7 @@
         <v>1.0190000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B22,4))</f>
@@ -9349,7 +10095,7 @@
         <v>0.98522167487684731</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B23,4))</f>
         <v>MEUR2020</v>
@@ -9366,7 +10112,7 @@
         <v>0.9783730634328176</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C27" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B24,4))</f>
         <v>MEUR2021</v>
@@ -9383,16 +10129,16 @@
         <v>0.95079986728164989</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="25"/>
     </row>
   </sheetData>
@@ -9411,12 +10157,12 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
@@ -9427,7 +10173,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>44</v>
       </c>
@@ -9465,7 +10211,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>161</v>
       </c>
@@ -9494,7 +10240,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="str">
         <f>Constants!C7</f>
         <v>MEUR2000</v>
@@ -9524,7 +10270,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="str">
         <f>Constants!C8</f>
         <v>MEUR2001</v>
@@ -9554,7 +10300,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="str">
         <f>Constants!C9</f>
         <v>MEUR2002</v>
@@ -9569,7 +10315,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="str">
         <f>Constants!C10</f>
         <v>MEUR2003</v>
@@ -9584,7 +10330,7 @@
         <v>41.87</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="str">
         <f>Constants!C11</f>
         <v>MEUR2004</v>
@@ -9599,7 +10345,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="str">
         <f>Constants!C12</f>
         <v>MEUR2005</v>
@@ -9614,7 +10360,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="str">
         <f>Constants!C13</f>
         <v>MEUR2006</v>
@@ -9629,7 +10375,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="str">
         <f>Constants!C14</f>
         <v>MEUR2007</v>
@@ -9644,7 +10390,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="str">
         <f>Constants!C15</f>
         <v>MEUR2008</v>
@@ -9659,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="str">
         <f>Constants!C16</f>
         <v>MEUR2009</v>
@@ -9674,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="str">
         <f>Constants!C17</f>
         <v>MEUR2010</v>
@@ -9689,61 +10435,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="str">
         <f>Constants!C18</f>
         <v>MEUR2011</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="str">
         <f>Constants!C19</f>
         <v>MEUR2012</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="str">
         <f>Constants!C20</f>
         <v>MEUR2013</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="str">
         <f>Constants!C21</f>
         <v>MEUR2014</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="str">
         <f>Constants!C22</f>
         <v>MEUR2015</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="str">
         <f>Constants!C23</f>
         <v>MEUR2016</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="str">
         <f>Constants!C24</f>
         <v>MEUR2017</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="str">
         <f>Constants!C25</f>
         <v>MEUR2019</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="str">
         <f>Constants!C26</f>
         <v>MEUR2020</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="str">
         <f>Constants!C27</f>
         <v>MEUR2021</v>
@@ -9765,13 +10511,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="4" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="28"/>
       <c r="C2" s="29" t="s">
         <v>34</v>
@@ -9780,7 +10526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="31">
         <v>2000</v>
       </c>
@@ -9789,7 +10535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="31">
         <v>2001</v>
       </c>
@@ -9801,7 +10547,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="31">
         <v>2002</v>
       </c>
@@ -9813,7 +10559,7 @@
         <v>104.34620000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="31">
         <v>2003</v>
       </c>
@@ -9825,7 +10571,7 @@
         <v>106.43312400000001</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="31">
         <v>2004</v>
       </c>
@@ -9837,7 +10583,7 @@
         <v>108.56178648000001</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="31">
         <v>2005</v>
       </c>
@@ -9849,7 +10595,7 @@
         <v>110.95014578256001</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="31">
         <v>2006</v>
       </c>
@@ -9861,7 +10607,7 @@
         <v>113.39104898977634</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="31">
         <v>2007</v>
       </c>
@@ -9873,7 +10619,7 @@
         <v>115.99904311654119</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="31">
         <v>2008</v>
       </c>
@@ -9885,7 +10631,7 @@
         <v>120.29100771185321</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="31">
         <v>2009</v>
       </c>
@@ -9897,7 +10643,7 @@
         <v>121.49391778897174</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="31">
         <v>2010</v>
       </c>
@@ -9909,7 +10655,7 @@
         <v>124.04529006254015</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="31">
         <v>2011</v>
       </c>
@@ -9921,7 +10667,7 @@
         <v>127.89069405447889</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="31">
         <v>2012</v>
       </c>
@@ -9933,7 +10679,7 @@
         <v>131.21585209989533</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="31">
         <v>2013</v>
       </c>
@@ -9945,7 +10691,7 @@
         <v>133.18408988139376</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="31">
         <v>2014</v>
       </c>
@@ -9957,7 +10703,7 @@
         <v>133.98319442068211</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="31">
         <v>2015</v>
       </c>
@@ -9969,7 +10715,7 @@
         <v>134.1171776151028</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="36">
         <v>2016</v>
       </c>
@@ -9981,7 +10727,7 @@
         <v>134.385411970333</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="36">
         <v>2017</v>
       </c>
@@ -9993,7 +10739,7 @@
         <v>136.66996397382866</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="36">
         <v>2018</v>
       </c>
@@ -10005,7 +10751,7 @@
         <v>139.26669328933141</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="36">
         <v>2019</v>
       </c>
@@ -10017,7 +10763,7 @@
         <v>141.35569368867138</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="36">
         <v>2020</v>
       </c>
@@ -10029,7 +10775,7 @@
         <v>142.34518354449207</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="36">
         <v>2021</v>
       </c>
@@ -10041,7 +10787,7 @@
         <v>146.47319386728233</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="35" t="s">
         <v>36</v>
       </c>
